--- a/Projects/CCRU_SAND/Data/KPI_Promo_Tracking.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Promo_Tracking.xlsx
@@ -298,17 +298,17 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.7397959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="11.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="11.9489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="68.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -335,7 +335,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
@@ -354,7 +354,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -370,7 +370,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -386,7 +386,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
